--- a/test/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BA57A-9079-457C-B74C-0C4D43A3E5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15240" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
@@ -14,7 +20,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Heat Stroke Breakdown'!$A$1:$BA$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Heat Stroke Overview'!$A$1:$D$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,23 +137,11 @@
 (BPM)</t>
   </si>
   <si>
-    <t>BioGears HeartRate
-(BPM)</t>
-  </si>
-  <si>
     <t>HeartStrokeVolume
 (mL/Beat)</t>
   </si>
   <si>
-    <t>BioGears HeartStrokeVolume
-(mL/Beat)</t>
-  </si>
-  <si>
     <t>BloodVolume
-(mL)</t>
-  </si>
-  <si>
-    <t>BioGears BloodVolume
 (mL)</t>
   </si>
   <si>
@@ -156,34 +158,18 @@
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears MeanArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>SystolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears SystolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>DiastolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears DiastolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>CardiacOutput
 (mL/min)</t>
   </si>
   <si>
-    <t>BioGears CardiacOutput
-(mL/min)</t>
-  </si>
-  <si>
     <t>ElectroCardiogram
 (mV)</t>
   </si>
@@ -192,15 +178,7 @@
 (Breaths/min)</t>
   </si>
   <si>
-    <t>BioGears RespirationRate
-(Breaths/min)</t>
-  </si>
-  <si>
     <t>OxygenSaturation
-(fraction)</t>
-  </si>
-  <si>
-    <t>BioGears OxygenSaturation
 (fraction)</t>
   </si>
   <si>
@@ -288,10 +266,6 @@
 (C)</t>
   </si>
   <si>
-    <t>BioGears SkinTemperature
-(C)</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
@@ -311,9 +285,6 @@
   </si>
   <si>
     <t>12 - 20</t>
-  </si>
-  <si>
-    <t>The heat stroke scenario simulates the body's temperature regulation system. This scenario highlights the ability of the BioGears® physiology engine to simulate the energy exchange between the human body and the enviroment.</t>
   </si>
   <si>
     <t>A 25 year old physically fit male.</t>
@@ -360,28 +331,7 @@
     <t>Brutsaert, Tom D. et al. “Higher Arterial Oxygen Saturation during Submaximal Exercise in Bolivian Aymara Compared to European Sojourners and Europeans Born and Raised at High Altitude.” American journal of physical anthropology 113.2 (2000): 169–181. Print.</t>
   </si>
   <si>
-    <r>
-      <t>BioGears CoreTemperature
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C)</t>
-    </r>
-  </si>
-  <si>
     <t>SweatRate
-(mL/s)</t>
-  </si>
-  <si>
-    <t>BioGears SweatRate
 (mL/s)</t>
   </si>
   <si>
@@ -762,9 +712,6 @@
     <t>0.86</t>
   </si>
   <si>
-    <t>Note that BioGears tracks ionized calcium, which is normally about 45% of total.</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
@@ -796,12 +743,66 @@
   </si>
   <si>
     <t>0.69</t>
+  </si>
+  <si>
+    <t>Engine HeartRate
+(BPM)</t>
+  </si>
+  <si>
+    <t>Engine HeartStrokeVolume
+(mL/Beat)</t>
+  </si>
+  <si>
+    <t>Engine BloodVolume
+(mL)</t>
+  </si>
+  <si>
+    <t>Engine MeanArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine SystolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine DiastolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine CardiacOutput
+(mL/min)</t>
+  </si>
+  <si>
+    <t>Engine RespirationRate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Engine OxygenSaturation
+(fraction)</t>
+  </si>
+  <si>
+    <t>Engine CoreTemperature
+(C)</t>
+  </si>
+  <si>
+    <t>Engine SkinTemperature
+(C)</t>
+  </si>
+  <si>
+    <t>Engine SweatRate
+(mL/s)</t>
+  </si>
+  <si>
+    <t>Note that Engine tracks ionized calcium, which is normally about 45% of total.</t>
+  </si>
+  <si>
+    <t>The heat stroke scenario simulates the body's temperature regulation system. This scenario highlights the ability of the Pulse physiology engine to simulate the energy exchange between the human body and the enviroment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1372,18 +1373,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1395,24 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1429,6 +1430,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1477,7 +1481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,9 +1514,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1545,6 +1566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1720,14 +1758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,20 +1776,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1769,85 +1807,85 @@
     </row>
     <row r="4" spans="1:4" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="B7" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="B11" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1875,82 +1913,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
+      <c r="B15" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
+      <c r="B16" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="B17" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
+      <c r="B18" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="B19" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="B21" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+      <c r="B22" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -1962,23 +2000,23 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -2024,13 +2062,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -2043,6 +2074,13 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2054,15 +2092,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,151 +2175,151 @@
         <v>24</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="O1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="S1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="U1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="W1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Y1" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="AA1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="AC1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="AE1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="30" t="s">
-        <v>48</v>
-      </c>
       <c r="AG1" s="32" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="67" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AI1" s="32" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="AJ1" s="80" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AK1" s="32" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AL1" s="67" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AM1" s="32" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="AN1" s="67" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AO1" s="81" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AP1" s="67" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AQ1" s="81" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AR1" s="67" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AS1" s="81" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AT1" s="67" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="AU1" s="81" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="AV1" s="67" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AW1" s="81" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="67" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="81" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="AZ1" s="67" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="BA1" s="81" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="BB1" s="67" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="BC1" s="81" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="150" x14ac:dyDescent="0.25">
@@ -2295,89 +2333,89 @@
         <v>60</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J2" s="35">
         <v>5500</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="S2" s="38" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="U2" s="38" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="V2" s="42" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="82" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AA2" s="38" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AB2" s="46" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="47"/>
       <c r="AD2" s="37" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="37" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="49">
         <v>40.658000000000001</v>
@@ -2389,47 +2427,47 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK2" s="85">
         <v>33</v>
       </c>
       <c r="AL2" s="36" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AM2" s="85">
         <v>0</v>
       </c>
       <c r="AN2" s="36" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AO2" s="70"/>
       <c r="AP2" s="83" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AQ2" s="70"/>
       <c r="AR2" s="36" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AS2" s="70"/>
       <c r="AT2" s="36" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="AU2" s="70"/>
       <c r="AV2" s="36" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AW2" s="70"/>
       <c r="AX2" s="36" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AY2" s="70"/>
       <c r="AZ2" s="36" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="BA2" s="70"/>
       <c r="BB2" s="36" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="BC2" s="70"/>
     </row>
@@ -2445,25 +2483,25 @@
         <v>1200</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G3" s="85">
         <v>177</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I3" s="87">
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K3" s="86">
         <v>5685</v>
@@ -2471,25 +2509,25 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
       <c r="N3" s="68" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="O3" s="85">
         <v>99</v>
       </c>
       <c r="P3" s="89" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="87">
         <v>110</v>
       </c>
       <c r="R3" s="68" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S3" s="86">
         <v>86</v>
       </c>
       <c r="T3" s="68" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="U3" s="85">
         <v>6635</v>
@@ -2497,73 +2535,73 @@
       <c r="V3" s="68"/>
       <c r="W3" s="68"/>
       <c r="X3" s="68" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Y3" s="85">
         <v>19</v>
       </c>
       <c r="Z3" s="82" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="85">
         <v>0.75</v>
       </c>
       <c r="AB3" s="46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="47"/>
       <c r="AD3" s="51"/>
       <c r="AE3" s="48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AF3" s="51"/>
       <c r="AG3" s="69">
         <v>36.732999999999997</v>
       </c>
       <c r="AH3" s="36" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AI3" s="85">
         <v>37.5</v>
       </c>
       <c r="AJ3" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK3" s="85">
         <v>32.799999999999997</v>
       </c>
       <c r="AL3" s="72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AM3" s="85">
         <v>0.05</v>
       </c>
       <c r="AN3" s="82" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AO3" s="70"/>
       <c r="AP3" s="82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AQ3" s="70"/>
       <c r="AR3" s="82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AS3" s="70"/>
       <c r="AT3" s="82" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AU3" s="70"/>
       <c r="AV3" s="82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AW3" s="70"/>
       <c r="AX3" s="82" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="AY3" s="70"/>
       <c r="AZ3" s="82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="BA3" s="70"/>
       <c r="BB3" s="82"/>
@@ -2581,23 +2619,23 @@
         <v>60</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G4" s="87">
         <v>177</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I4" s="85">
         <v>42</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K4" s="85">
         <v>5685</v>
@@ -2605,25 +2643,25 @@
       <c r="L4" s="68"/>
       <c r="M4" s="68"/>
       <c r="N4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O4" s="85">
         <v>98</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="85">
         <v>110</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="S4" s="85">
         <v>80</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="U4" s="85">
         <v>6328</v>
@@ -2631,13 +2669,13 @@
       <c r="V4" s="68"/>
       <c r="W4" s="68"/>
       <c r="X4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Y4" s="86">
         <v>19</v>
       </c>
       <c r="Z4" s="68" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AA4" s="87">
         <v>0.75</v>
@@ -2649,19 +2687,19 @@
       <c r="AF4" s="51"/>
       <c r="AG4" s="69"/>
       <c r="AH4" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AI4" s="85">
         <v>37.6</v>
       </c>
       <c r="AJ4" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK4" s="85">
         <v>32.799999999999997</v>
       </c>
       <c r="AL4" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AM4" s="85">
         <v>0.05</v>
@@ -2695,125 +2733,125 @@
         <v>600</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L5" s="73"/>
       <c r="M5" s="74"/>
       <c r="N5" s="68" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P5" s="68" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="R5" s="68" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="T5" s="68" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="V5" s="73"/>
       <c r="W5" s="75"/>
       <c r="X5" s="68" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Y5" s="38" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="82" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="AA5" s="38" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="AB5" s="46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AC5" s="47"/>
       <c r="AD5" s="51"/>
       <c r="AE5" s="48" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="51"/>
       <c r="AG5" s="49">
         <v>41.706000000000003</v>
       </c>
       <c r="AH5" s="34" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AI5" s="86">
         <v>38.299999999999997</v>
       </c>
       <c r="AJ5" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK5" s="85">
         <v>32.799999999999997</v>
       </c>
       <c r="AL5" s="72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AM5" s="85">
         <v>0.11</v>
       </c>
       <c r="AN5" s="82" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AO5" s="70"/>
       <c r="AP5" s="82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AQ5" s="70"/>
       <c r="AR5" s="82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AS5" s="70"/>
       <c r="AT5" s="82" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AU5" s="70"/>
       <c r="AV5" s="82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AW5" s="70"/>
       <c r="AX5" s="82" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="AY5" s="70"/>
       <c r="AZ5" s="82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="BA5" s="70"/>
       <c r="BB5" s="82"/>
@@ -2831,25 +2869,25 @@
         <v>90</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K6" s="88">
         <v>5300</v>
@@ -2857,99 +2895,99 @@
       <c r="L6" s="73"/>
       <c r="M6" s="74"/>
       <c r="N6" s="73" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="P6" s="73" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="R6" s="68" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="T6" s="68" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="V6" s="73"/>
       <c r="W6" s="75"/>
       <c r="X6" s="68" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="38" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Z6" s="82" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="45" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="AB6" s="46" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="47"/>
       <c r="AD6" s="51"/>
       <c r="AE6" s="48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AF6" s="51"/>
       <c r="AG6" s="49">
         <v>39.488999999999997</v>
       </c>
       <c r="AH6" s="36" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AI6" s="86">
         <v>38.299999999999997</v>
       </c>
       <c r="AJ6" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK6" s="85">
         <v>30</v>
       </c>
       <c r="AL6" s="72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AM6" s="85">
         <v>0.11</v>
       </c>
       <c r="AN6" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AO6" s="70"/>
       <c r="AP6" s="82" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AQ6" s="70"/>
       <c r="AR6" s="82" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AS6" s="70"/>
       <c r="AT6" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AU6" s="70"/>
       <c r="AV6" s="82" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AW6" s="70"/>
       <c r="AX6" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AY6" s="70"/>
       <c r="AZ6" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="BA6" s="70"/>
       <c r="BB6" s="82"/>
@@ -2967,25 +3005,25 @@
         <v>600</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K7" s="88">
         <v>6190</v>
@@ -2993,111 +3031,111 @@
       <c r="L7" s="73"/>
       <c r="M7" s="74"/>
       <c r="N7" s="73" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="P7" s="84" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="U7" s="38" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="V7" s="73"/>
       <c r="W7" s="75"/>
       <c r="X7" s="68" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="38" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Z7" s="82" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="38" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AB7" s="46" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC7" s="47"/>
       <c r="AD7" s="51"/>
       <c r="AE7" s="48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AF7" s="51"/>
       <c r="AG7" s="49">
         <v>39.488999999999997</v>
       </c>
       <c r="AH7" s="36" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AI7" s="85">
         <v>38.1</v>
       </c>
       <c r="AJ7" s="36" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AK7" s="85">
         <v>24.4</v>
       </c>
       <c r="AL7" s="72" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AM7" s="85">
         <v>0.1</v>
       </c>
       <c r="AN7" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AO7" s="86">
         <v>3.51</v>
       </c>
       <c r="AP7" s="82" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AQ7" s="86">
         <v>13.82</v>
       </c>
       <c r="AR7" s="82" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="AS7" s="86">
         <v>4.87</v>
       </c>
       <c r="AT7" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AU7" s="86">
         <v>26.14</v>
       </c>
       <c r="AV7" s="82" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AW7" s="87">
         <v>0.95</v>
       </c>
       <c r="AX7" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AY7" s="85">
         <v>47.94</v>
       </c>
       <c r="AZ7" s="82" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="BA7" s="86">
         <v>145</v>
@@ -3109,7 +3147,7 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B8" s="44">
         <f t="shared" si="0"/>
@@ -3117,7 +3155,7 @@
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53"/>
@@ -3186,7 +3224,7 @@
       <c r="T10" s="64"/>
       <c r="V10" s="64"/>
       <c r="AS10" s="50" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">

--- a/test/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/HeatStrokeValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BA57A-9079-457C-B74C-0C4D43A3E5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6A320-336D-4CAF-9251-8CE0C587B5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Stroke Overview" sheetId="12" r:id="rId1"/>
@@ -1373,12 +1373,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1396,24 +1414,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1764,7 +1764,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -1776,20 +1776,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1820,72 +1820,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
     </row>
     <row r="8" spans="1:4" s="90" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -1913,82 +1913,82 @@
       <c r="A15" s="91">
         <v>1</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
     </row>
     <row r="16" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>2</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>3</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>4</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>5</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>6</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>7</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <v>8</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -2002,21 +2002,21 @@
       <c r="A24" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -2062,6 +2062,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -2074,13 +2081,6 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN29" sqref="AN29"/>
     </sheetView>
   </sheetViews>
